--- a/KONCOWY.xlsx
+++ b/KONCOWY.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A6EEC4-AA13-4C48-9664-AE2AA04FB2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926470D7-E229-47AE-BF4F-95A4AFABB2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3669" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="1949">
   <si>
     <t>Liczba wywołań funkcji celu</t>
   </si>
@@ -6039,6 +6039,15 @@
   </si>
   <si>
     <t>Lp,</t>
+  </si>
+  <si>
+    <t>Cos takiego ma wyjsc???</t>
+  </si>
+  <si>
+    <t>(sprzed paru lat)</t>
+  </si>
+  <si>
+    <t>cos takiego?</t>
   </si>
 </sst>
 </file>
@@ -6683,6 +6692,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6755,8 +6766,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -6849,6 +6858,148 @@
         <a:xfrm>
           <a:off x="16033909" y="918687"/>
           <a:ext cx="3326594" cy="1575656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>509543</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7D0FCE-4173-F37C-549C-A18BB37D6E32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7109460" y="922020"/>
+          <a:ext cx="6506483" cy="3762900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16197</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8296C299-C0CF-7FE3-0A43-C11DFF6CEB72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="167640" y="2506980"/>
+          <a:ext cx="6858957" cy="4334480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>75437</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>86333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5795C7AD-E73D-A28C-7FBA-EAE4538A46C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5379720" y="678180"/>
+          <a:ext cx="8183117" cy="4353533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7217,48 +7368,48 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.796875" customWidth="1"/>
-    <col min="4" max="4" width="29.53125" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
     <col min="5" max="14" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>1945</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="49" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="51"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="56"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="21" t="s">
         <v>8</v>
       </c>
@@ -7290,8 +7441,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.65" thickTop="1">
-      <c r="A3" s="44">
+    <row r="3" spans="1:14" ht="15" thickTop="1">
+      <c r="A3" s="46">
         <v>0.1</v>
       </c>
       <c r="B3" s="4">
@@ -7337,7 +7488,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -7381,7 +7532,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -7425,7 +7576,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -7469,7 +7620,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -7513,7 +7664,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -7557,7 +7708,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -7601,7 +7752,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -7645,7 +7796,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -7689,7 +7840,7 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="45"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -7733,7 +7884,7 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -7777,7 +7928,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -7821,7 +7972,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="45"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -7865,7 +8016,7 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -7909,7 +8060,7 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -7953,7 +8104,7 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -7997,7 +8148,7 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="45"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -8041,7 +8192,7 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="45"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -8085,7 +8236,7 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="45"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -8129,7 +8280,7 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="45"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -8173,7 +8324,7 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="45"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -8217,7 +8368,7 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="45"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -8261,7 +8412,7 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="45"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -8305,7 +8456,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="45"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -8349,7 +8500,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="45"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -8393,7 +8544,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="45"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -8437,7 +8588,7 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="45"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -8481,7 +8632,7 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="45"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -8525,7 +8676,7 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="45"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -8569,7 +8720,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="45"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -8613,7 +8764,7 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="45"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -8657,7 +8808,7 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="45"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -8701,7 +8852,7 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="45"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -8745,7 +8896,7 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="45"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -8789,7 +8940,7 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="45"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -8833,7 +8984,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="45"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -8877,7 +9028,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="45"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -8921,7 +9072,7 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="45"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -8965,7 +9116,7 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="45"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -9009,7 +9160,7 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="45"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -9053,7 +9204,7 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="45"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -9097,7 +9248,7 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="45"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -9141,7 +9292,7 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="45"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -9185,7 +9336,7 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="45"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -9229,7 +9380,7 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="45"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -9273,7 +9424,7 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="45"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -9317,7 +9468,7 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="45"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -9361,7 +9512,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="45"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -9405,7 +9556,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="45"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -9449,7 +9600,7 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="45"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -9493,7 +9644,7 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="45"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -9537,7 +9688,7 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="45"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -9581,7 +9732,7 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="45"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -9625,7 +9776,7 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="45"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -9669,7 +9820,7 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="45"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -9713,7 +9864,7 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="45"/>
+      <c r="A58" s="47"/>
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -9757,7 +9908,7 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="45"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -9801,7 +9952,7 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="45"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -9845,7 +9996,7 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="45"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -9889,7 +10040,7 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="45"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="1">
         <v>60</v>
       </c>
@@ -9933,7 +10084,7 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="45"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -9977,7 +10128,7 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="45"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="1">
         <v>62</v>
       </c>
@@ -10021,7 +10172,7 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="45"/>
+      <c r="A65" s="47"/>
       <c r="B65" s="1">
         <v>63</v>
       </c>
@@ -10065,7 +10216,7 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="45"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="1">
         <v>64</v>
       </c>
@@ -10109,7 +10260,7 @@
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="45"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -10153,7 +10304,7 @@
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="45"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -10197,7 +10348,7 @@
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="45"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -10241,7 +10392,7 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="45"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="1">
         <v>68</v>
       </c>
@@ -10285,7 +10436,7 @@
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="45"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -10329,7 +10480,7 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="45"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -10373,7 +10524,7 @@
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="45"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -10417,7 +10568,7 @@
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="45"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -10461,7 +10612,7 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="45"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="1">
         <v>73</v>
       </c>
@@ -10505,7 +10656,7 @@
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="45"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -10549,7 +10700,7 @@
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="45"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -10593,7 +10744,7 @@
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="45"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -10637,7 +10788,7 @@
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="45"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -10681,7 +10832,7 @@
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="45"/>
+      <c r="A80" s="47"/>
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -10725,7 +10876,7 @@
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="45"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -10769,7 +10920,7 @@
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="45"/>
+      <c r="A82" s="47"/>
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -10813,7 +10964,7 @@
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="45"/>
+      <c r="A83" s="47"/>
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -10857,7 +11008,7 @@
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="45"/>
+      <c r="A84" s="47"/>
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -10901,7 +11052,7 @@
       </c>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="45"/>
+      <c r="A85" s="47"/>
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -10945,7 +11096,7 @@
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="45"/>
+      <c r="A86" s="47"/>
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -10989,7 +11140,7 @@
       </c>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="45"/>
+      <c r="A87" s="47"/>
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -11033,7 +11184,7 @@
       </c>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="45"/>
+      <c r="A88" s="47"/>
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -11077,7 +11228,7 @@
       </c>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="45"/>
+      <c r="A89" s="47"/>
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -11121,7 +11272,7 @@
       </c>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="45"/>
+      <c r="A90" s="47"/>
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -11165,7 +11316,7 @@
       </c>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="45"/>
+      <c r="A91" s="47"/>
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -11209,7 +11360,7 @@
       </c>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="45"/>
+      <c r="A92" s="47"/>
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -11253,7 +11404,7 @@
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="45"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="1">
         <v>91</v>
       </c>
@@ -11297,7 +11448,7 @@
       </c>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="45"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -11341,7 +11492,7 @@
       </c>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="45"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="1">
         <v>93</v>
       </c>
@@ -11385,7 +11536,7 @@
       </c>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="45"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -11429,7 +11580,7 @@
       </c>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="45"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="1">
         <v>95</v>
       </c>
@@ -11473,7 +11624,7 @@
       </c>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="45"/>
+      <c r="A98" s="47"/>
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -11517,7 +11668,7 @@
       </c>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="45"/>
+      <c r="A99" s="47"/>
       <c r="B99" s="1">
         <v>97</v>
       </c>
@@ -11561,7 +11712,7 @@
       </c>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="45"/>
+      <c r="A100" s="47"/>
       <c r="B100" s="1">
         <v>98</v>
       </c>
@@ -11605,7 +11756,7 @@
       </c>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="45"/>
+      <c r="A101" s="47"/>
       <c r="B101" s="1">
         <v>99</v>
       </c>
@@ -11648,8 +11799,8 @@
         <v>NIE</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="14.65" thickBot="1">
-      <c r="A102" s="46"/>
+    <row r="102" spans="1:14" ht="15" thickBot="1">
+      <c r="A102" s="48"/>
       <c r="B102" s="3">
         <v>100</v>
       </c>
@@ -11693,7 +11844,7 @@
       </c>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" s="44">
+      <c r="A103" s="46">
         <v>0.01</v>
       </c>
       <c r="B103" s="4">
@@ -11739,7 +11890,7 @@
       </c>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="45"/>
+      <c r="A104" s="47"/>
       <c r="B104" s="1">
         <v>2</v>
       </c>
@@ -11783,7 +11934,7 @@
       </c>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="45"/>
+      <c r="A105" s="47"/>
       <c r="B105" s="1">
         <v>3</v>
       </c>
@@ -11827,7 +11978,7 @@
       </c>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="45"/>
+      <c r="A106" s="47"/>
       <c r="B106" s="1">
         <v>4</v>
       </c>
@@ -11871,7 +12022,7 @@
       </c>
     </row>
     <row r="107" spans="1:14">
-      <c r="A107" s="45"/>
+      <c r="A107" s="47"/>
       <c r="B107" s="1">
         <v>5</v>
       </c>
@@ -11915,7 +12066,7 @@
       </c>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="45"/>
+      <c r="A108" s="47"/>
       <c r="B108" s="1">
         <v>6</v>
       </c>
@@ -11959,7 +12110,7 @@
       </c>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" s="45"/>
+      <c r="A109" s="47"/>
       <c r="B109" s="1">
         <v>7</v>
       </c>
@@ -12003,7 +12154,7 @@
       </c>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110" s="45"/>
+      <c r="A110" s="47"/>
       <c r="B110" s="1">
         <v>8</v>
       </c>
@@ -12047,7 +12198,7 @@
       </c>
     </row>
     <row r="111" spans="1:14">
-      <c r="A111" s="45"/>
+      <c r="A111" s="47"/>
       <c r="B111" s="1">
         <v>9</v>
       </c>
@@ -12091,7 +12242,7 @@
       </c>
     </row>
     <row r="112" spans="1:14">
-      <c r="A112" s="45"/>
+      <c r="A112" s="47"/>
       <c r="B112" s="1">
         <v>10</v>
       </c>
@@ -12135,7 +12286,7 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="45"/>
+      <c r="A113" s="47"/>
       <c r="B113" s="1">
         <v>11</v>
       </c>
@@ -12179,7 +12330,7 @@
       </c>
     </row>
     <row r="114" spans="1:14">
-      <c r="A114" s="45"/>
+      <c r="A114" s="47"/>
       <c r="B114" s="1">
         <v>12</v>
       </c>
@@ -12223,7 +12374,7 @@
       </c>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" s="45"/>
+      <c r="A115" s="47"/>
       <c r="B115" s="1">
         <v>13</v>
       </c>
@@ -12267,7 +12418,7 @@
       </c>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="45"/>
+      <c r="A116" s="47"/>
       <c r="B116" s="1">
         <v>14</v>
       </c>
@@ -12311,7 +12462,7 @@
       </c>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="45"/>
+      <c r="A117" s="47"/>
       <c r="B117" s="1">
         <v>15</v>
       </c>
@@ -12355,7 +12506,7 @@
       </c>
     </row>
     <row r="118" spans="1:14">
-      <c r="A118" s="45"/>
+      <c r="A118" s="47"/>
       <c r="B118" s="1">
         <v>16</v>
       </c>
@@ -12399,7 +12550,7 @@
       </c>
     </row>
     <row r="119" spans="1:14">
-      <c r="A119" s="45"/>
+      <c r="A119" s="47"/>
       <c r="B119" s="1">
         <v>17</v>
       </c>
@@ -12443,7 +12594,7 @@
       </c>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="45"/>
+      <c r="A120" s="47"/>
       <c r="B120" s="1">
         <v>18</v>
       </c>
@@ -12487,7 +12638,7 @@
       </c>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="45"/>
+      <c r="A121" s="47"/>
       <c r="B121" s="1">
         <v>19</v>
       </c>
@@ -12531,7 +12682,7 @@
       </c>
     </row>
     <row r="122" spans="1:14">
-      <c r="A122" s="45"/>
+      <c r="A122" s="47"/>
       <c r="B122" s="1">
         <v>20</v>
       </c>
@@ -12575,7 +12726,7 @@
       </c>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="45"/>
+      <c r="A123" s="47"/>
       <c r="B123" s="1">
         <v>21</v>
       </c>
@@ -12619,7 +12770,7 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="45"/>
+      <c r="A124" s="47"/>
       <c r="B124" s="1">
         <v>22</v>
       </c>
@@ -12663,7 +12814,7 @@
       </c>
     </row>
     <row r="125" spans="1:14">
-      <c r="A125" s="45"/>
+      <c r="A125" s="47"/>
       <c r="B125" s="1">
         <v>23</v>
       </c>
@@ -12707,7 +12858,7 @@
       </c>
     </row>
     <row r="126" spans="1:14">
-      <c r="A126" s="45"/>
+      <c r="A126" s="47"/>
       <c r="B126" s="1">
         <v>24</v>
       </c>
@@ -12751,7 +12902,7 @@
       </c>
     </row>
     <row r="127" spans="1:14">
-      <c r="A127" s="45"/>
+      <c r="A127" s="47"/>
       <c r="B127" s="1">
         <v>25</v>
       </c>
@@ -12795,7 +12946,7 @@
       </c>
     </row>
     <row r="128" spans="1:14">
-      <c r="A128" s="45"/>
+      <c r="A128" s="47"/>
       <c r="B128" s="1">
         <v>26</v>
       </c>
@@ -12839,7 +12990,7 @@
       </c>
     </row>
     <row r="129" spans="1:14">
-      <c r="A129" s="45"/>
+      <c r="A129" s="47"/>
       <c r="B129" s="1">
         <v>27</v>
       </c>
@@ -12883,7 +13034,7 @@
       </c>
     </row>
     <row r="130" spans="1:14">
-      <c r="A130" s="45"/>
+      <c r="A130" s="47"/>
       <c r="B130" s="1">
         <v>28</v>
       </c>
@@ -12927,7 +13078,7 @@
       </c>
     </row>
     <row r="131" spans="1:14">
-      <c r="A131" s="45"/>
+      <c r="A131" s="47"/>
       <c r="B131" s="1">
         <v>29</v>
       </c>
@@ -12971,7 +13122,7 @@
       </c>
     </row>
     <row r="132" spans="1:14">
-      <c r="A132" s="45"/>
+      <c r="A132" s="47"/>
       <c r="B132" s="1">
         <v>30</v>
       </c>
@@ -13015,7 +13166,7 @@
       </c>
     </row>
     <row r="133" spans="1:14">
-      <c r="A133" s="45"/>
+      <c r="A133" s="47"/>
       <c r="B133" s="1">
         <v>31</v>
       </c>
@@ -13059,7 +13210,7 @@
       </c>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="45"/>
+      <c r="A134" s="47"/>
       <c r="B134" s="1">
         <v>32</v>
       </c>
@@ -13103,7 +13254,7 @@
       </c>
     </row>
     <row r="135" spans="1:14">
-      <c r="A135" s="45"/>
+      <c r="A135" s="47"/>
       <c r="B135" s="1">
         <v>33</v>
       </c>
@@ -13147,7 +13298,7 @@
       </c>
     </row>
     <row r="136" spans="1:14">
-      <c r="A136" s="45"/>
+      <c r="A136" s="47"/>
       <c r="B136" s="1">
         <v>34</v>
       </c>
@@ -13191,7 +13342,7 @@
       </c>
     </row>
     <row r="137" spans="1:14">
-      <c r="A137" s="45"/>
+      <c r="A137" s="47"/>
       <c r="B137" s="1">
         <v>35</v>
       </c>
@@ -13235,7 +13386,7 @@
       </c>
     </row>
     <row r="138" spans="1:14">
-      <c r="A138" s="45"/>
+      <c r="A138" s="47"/>
       <c r="B138" s="1">
         <v>36</v>
       </c>
@@ -13279,7 +13430,7 @@
       </c>
     </row>
     <row r="139" spans="1:14">
-      <c r="A139" s="45"/>
+      <c r="A139" s="47"/>
       <c r="B139" s="1">
         <v>37</v>
       </c>
@@ -13323,7 +13474,7 @@
       </c>
     </row>
     <row r="140" spans="1:14">
-      <c r="A140" s="45"/>
+      <c r="A140" s="47"/>
       <c r="B140" s="1">
         <v>38</v>
       </c>
@@ -13367,7 +13518,7 @@
       </c>
     </row>
     <row r="141" spans="1:14">
-      <c r="A141" s="45"/>
+      <c r="A141" s="47"/>
       <c r="B141" s="1">
         <v>39</v>
       </c>
@@ -13411,7 +13562,7 @@
       </c>
     </row>
     <row r="142" spans="1:14">
-      <c r="A142" s="45"/>
+      <c r="A142" s="47"/>
       <c r="B142" s="1">
         <v>40</v>
       </c>
@@ -13455,7 +13606,7 @@
       </c>
     </row>
     <row r="143" spans="1:14">
-      <c r="A143" s="45"/>
+      <c r="A143" s="47"/>
       <c r="B143" s="1">
         <v>41</v>
       </c>
@@ -13499,7 +13650,7 @@
       </c>
     </row>
     <row r="144" spans="1:14">
-      <c r="A144" s="45"/>
+      <c r="A144" s="47"/>
       <c r="B144" s="1">
         <v>42</v>
       </c>
@@ -13543,7 +13694,7 @@
       </c>
     </row>
     <row r="145" spans="1:14">
-      <c r="A145" s="45"/>
+      <c r="A145" s="47"/>
       <c r="B145" s="1">
         <v>43</v>
       </c>
@@ -13587,7 +13738,7 @@
       </c>
     </row>
     <row r="146" spans="1:14">
-      <c r="A146" s="45"/>
+      <c r="A146" s="47"/>
       <c r="B146" s="1">
         <v>44</v>
       </c>
@@ -13631,7 +13782,7 @@
       </c>
     </row>
     <row r="147" spans="1:14">
-      <c r="A147" s="45"/>
+      <c r="A147" s="47"/>
       <c r="B147" s="1">
         <v>45</v>
       </c>
@@ -13675,7 +13826,7 @@
       </c>
     </row>
     <row r="148" spans="1:14">
-      <c r="A148" s="45"/>
+      <c r="A148" s="47"/>
       <c r="B148" s="1">
         <v>46</v>
       </c>
@@ -13719,7 +13870,7 @@
       </c>
     </row>
     <row r="149" spans="1:14">
-      <c r="A149" s="45"/>
+      <c r="A149" s="47"/>
       <c r="B149" s="1">
         <v>47</v>
       </c>
@@ -13763,7 +13914,7 @@
       </c>
     </row>
     <row r="150" spans="1:14">
-      <c r="A150" s="45"/>
+      <c r="A150" s="47"/>
       <c r="B150" s="1">
         <v>48</v>
       </c>
@@ -13807,7 +13958,7 @@
       </c>
     </row>
     <row r="151" spans="1:14">
-      <c r="A151" s="45"/>
+      <c r="A151" s="47"/>
       <c r="B151" s="1">
         <v>49</v>
       </c>
@@ -13851,7 +14002,7 @@
       </c>
     </row>
     <row r="152" spans="1:14">
-      <c r="A152" s="45"/>
+      <c r="A152" s="47"/>
       <c r="B152" s="1">
         <v>50</v>
       </c>
@@ -13895,7 +14046,7 @@
       </c>
     </row>
     <row r="153" spans="1:14">
-      <c r="A153" s="45"/>
+      <c r="A153" s="47"/>
       <c r="B153" s="1">
         <v>51</v>
       </c>
@@ -13939,7 +14090,7 @@
       </c>
     </row>
     <row r="154" spans="1:14">
-      <c r="A154" s="45"/>
+      <c r="A154" s="47"/>
       <c r="B154" s="1">
         <v>52</v>
       </c>
@@ -13983,7 +14134,7 @@
       </c>
     </row>
     <row r="155" spans="1:14">
-      <c r="A155" s="45"/>
+      <c r="A155" s="47"/>
       <c r="B155" s="1">
         <v>53</v>
       </c>
@@ -14027,7 +14178,7 @@
       </c>
     </row>
     <row r="156" spans="1:14">
-      <c r="A156" s="45"/>
+      <c r="A156" s="47"/>
       <c r="B156" s="1">
         <v>54</v>
       </c>
@@ -14071,7 +14222,7 @@
       </c>
     </row>
     <row r="157" spans="1:14">
-      <c r="A157" s="45"/>
+      <c r="A157" s="47"/>
       <c r="B157" s="1">
         <v>55</v>
       </c>
@@ -14115,7 +14266,7 @@
       </c>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" s="45"/>
+      <c r="A158" s="47"/>
       <c r="B158" s="1">
         <v>56</v>
       </c>
@@ -14159,7 +14310,7 @@
       </c>
     </row>
     <row r="159" spans="1:14">
-      <c r="A159" s="45"/>
+      <c r="A159" s="47"/>
       <c r="B159" s="1">
         <v>57</v>
       </c>
@@ -14203,7 +14354,7 @@
       </c>
     </row>
     <row r="160" spans="1:14">
-      <c r="A160" s="45"/>
+      <c r="A160" s="47"/>
       <c r="B160" s="1">
         <v>58</v>
       </c>
@@ -14247,7 +14398,7 @@
       </c>
     </row>
     <row r="161" spans="1:14">
-      <c r="A161" s="45"/>
+      <c r="A161" s="47"/>
       <c r="B161" s="1">
         <v>59</v>
       </c>
@@ -14291,7 +14442,7 @@
       </c>
     </row>
     <row r="162" spans="1:14">
-      <c r="A162" s="45"/>
+      <c r="A162" s="47"/>
       <c r="B162" s="1">
         <v>60</v>
       </c>
@@ -14335,7 +14486,7 @@
       </c>
     </row>
     <row r="163" spans="1:14">
-      <c r="A163" s="45"/>
+      <c r="A163" s="47"/>
       <c r="B163" s="1">
         <v>61</v>
       </c>
@@ -14379,7 +14530,7 @@
       </c>
     </row>
     <row r="164" spans="1:14">
-      <c r="A164" s="45"/>
+      <c r="A164" s="47"/>
       <c r="B164" s="1">
         <v>62</v>
       </c>
@@ -14423,7 +14574,7 @@
       </c>
     </row>
     <row r="165" spans="1:14">
-      <c r="A165" s="45"/>
+      <c r="A165" s="47"/>
       <c r="B165" s="1">
         <v>63</v>
       </c>
@@ -14467,7 +14618,7 @@
       </c>
     </row>
     <row r="166" spans="1:14">
-      <c r="A166" s="45"/>
+      <c r="A166" s="47"/>
       <c r="B166" s="1">
         <v>64</v>
       </c>
@@ -14511,7 +14662,7 @@
       </c>
     </row>
     <row r="167" spans="1:14">
-      <c r="A167" s="45"/>
+      <c r="A167" s="47"/>
       <c r="B167" s="1">
         <v>65</v>
       </c>
@@ -14555,7 +14706,7 @@
       </c>
     </row>
     <row r="168" spans="1:14">
-      <c r="A168" s="45"/>
+      <c r="A168" s="47"/>
       <c r="B168" s="1">
         <v>66</v>
       </c>
@@ -14599,7 +14750,7 @@
       </c>
     </row>
     <row r="169" spans="1:14">
-      <c r="A169" s="45"/>
+      <c r="A169" s="47"/>
       <c r="B169" s="1">
         <v>67</v>
       </c>
@@ -14643,7 +14794,7 @@
       </c>
     </row>
     <row r="170" spans="1:14">
-      <c r="A170" s="45"/>
+      <c r="A170" s="47"/>
       <c r="B170" s="1">
         <v>68</v>
       </c>
@@ -14687,7 +14838,7 @@
       </c>
     </row>
     <row r="171" spans="1:14">
-      <c r="A171" s="45"/>
+      <c r="A171" s="47"/>
       <c r="B171" s="1">
         <v>69</v>
       </c>
@@ -14731,7 +14882,7 @@
       </c>
     </row>
     <row r="172" spans="1:14">
-      <c r="A172" s="45"/>
+      <c r="A172" s="47"/>
       <c r="B172" s="1">
         <v>70</v>
       </c>
@@ -14775,7 +14926,7 @@
       </c>
     </row>
     <row r="173" spans="1:14">
-      <c r="A173" s="45"/>
+      <c r="A173" s="47"/>
       <c r="B173" s="1">
         <v>71</v>
       </c>
@@ -14819,7 +14970,7 @@
       </c>
     </row>
     <row r="174" spans="1:14">
-      <c r="A174" s="45"/>
+      <c r="A174" s="47"/>
       <c r="B174" s="1">
         <v>72</v>
       </c>
@@ -14863,7 +15014,7 @@
       </c>
     </row>
     <row r="175" spans="1:14">
-      <c r="A175" s="45"/>
+      <c r="A175" s="47"/>
       <c r="B175" s="1">
         <v>73</v>
       </c>
@@ -14907,7 +15058,7 @@
       </c>
     </row>
     <row r="176" spans="1:14">
-      <c r="A176" s="45"/>
+      <c r="A176" s="47"/>
       <c r="B176" s="1">
         <v>74</v>
       </c>
@@ -14951,7 +15102,7 @@
       </c>
     </row>
     <row r="177" spans="1:14">
-      <c r="A177" s="45"/>
+      <c r="A177" s="47"/>
       <c r="B177" s="1">
         <v>75</v>
       </c>
@@ -14995,7 +15146,7 @@
       </c>
     </row>
     <row r="178" spans="1:14">
-      <c r="A178" s="45"/>
+      <c r="A178" s="47"/>
       <c r="B178" s="1">
         <v>76</v>
       </c>
@@ -15039,7 +15190,7 @@
       </c>
     </row>
     <row r="179" spans="1:14">
-      <c r="A179" s="45"/>
+      <c r="A179" s="47"/>
       <c r="B179" s="1">
         <v>77</v>
       </c>
@@ -15083,7 +15234,7 @@
       </c>
     </row>
     <row r="180" spans="1:14">
-      <c r="A180" s="45"/>
+      <c r="A180" s="47"/>
       <c r="B180" s="1">
         <v>78</v>
       </c>
@@ -15127,7 +15278,7 @@
       </c>
     </row>
     <row r="181" spans="1:14">
-      <c r="A181" s="45"/>
+      <c r="A181" s="47"/>
       <c r="B181" s="1">
         <v>79</v>
       </c>
@@ -15171,7 +15322,7 @@
       </c>
     </row>
     <row r="182" spans="1:14">
-      <c r="A182" s="45"/>
+      <c r="A182" s="47"/>
       <c r="B182" s="1">
         <v>80</v>
       </c>
@@ -15215,7 +15366,7 @@
       </c>
     </row>
     <row r="183" spans="1:14">
-      <c r="A183" s="45"/>
+      <c r="A183" s="47"/>
       <c r="B183" s="1">
         <v>81</v>
       </c>
@@ -15259,7 +15410,7 @@
       </c>
     </row>
     <row r="184" spans="1:14">
-      <c r="A184" s="45"/>
+      <c r="A184" s="47"/>
       <c r="B184" s="1">
         <v>82</v>
       </c>
@@ -15303,7 +15454,7 @@
       </c>
     </row>
     <row r="185" spans="1:14">
-      <c r="A185" s="45"/>
+      <c r="A185" s="47"/>
       <c r="B185" s="1">
         <v>83</v>
       </c>
@@ -15347,7 +15498,7 @@
       </c>
     </row>
     <row r="186" spans="1:14">
-      <c r="A186" s="45"/>
+      <c r="A186" s="47"/>
       <c r="B186" s="1">
         <v>84</v>
       </c>
@@ -15391,7 +15542,7 @@
       </c>
     </row>
     <row r="187" spans="1:14">
-      <c r="A187" s="45"/>
+      <c r="A187" s="47"/>
       <c r="B187" s="1">
         <v>85</v>
       </c>
@@ -15435,7 +15586,7 @@
       </c>
     </row>
     <row r="188" spans="1:14">
-      <c r="A188" s="45"/>
+      <c r="A188" s="47"/>
       <c r="B188" s="1">
         <v>86</v>
       </c>
@@ -15479,7 +15630,7 @@
       </c>
     </row>
     <row r="189" spans="1:14">
-      <c r="A189" s="45"/>
+      <c r="A189" s="47"/>
       <c r="B189" s="1">
         <v>87</v>
       </c>
@@ -15523,7 +15674,7 @@
       </c>
     </row>
     <row r="190" spans="1:14">
-      <c r="A190" s="45"/>
+      <c r="A190" s="47"/>
       <c r="B190" s="1">
         <v>88</v>
       </c>
@@ -15567,7 +15718,7 @@
       </c>
     </row>
     <row r="191" spans="1:14">
-      <c r="A191" s="45"/>
+      <c r="A191" s="47"/>
       <c r="B191" s="1">
         <v>89</v>
       </c>
@@ -15611,7 +15762,7 @@
       </c>
     </row>
     <row r="192" spans="1:14">
-      <c r="A192" s="45"/>
+      <c r="A192" s="47"/>
       <c r="B192" s="1">
         <v>90</v>
       </c>
@@ -15655,7 +15806,7 @@
       </c>
     </row>
     <row r="193" spans="1:14">
-      <c r="A193" s="45"/>
+      <c r="A193" s="47"/>
       <c r="B193" s="1">
         <v>91</v>
       </c>
@@ -15699,7 +15850,7 @@
       </c>
     </row>
     <row r="194" spans="1:14">
-      <c r="A194" s="45"/>
+      <c r="A194" s="47"/>
       <c r="B194" s="1">
         <v>92</v>
       </c>
@@ -15743,7 +15894,7 @@
       </c>
     </row>
     <row r="195" spans="1:14">
-      <c r="A195" s="45"/>
+      <c r="A195" s="47"/>
       <c r="B195" s="1">
         <v>93</v>
       </c>
@@ -15787,7 +15938,7 @@
       </c>
     </row>
     <row r="196" spans="1:14">
-      <c r="A196" s="45"/>
+      <c r="A196" s="47"/>
       <c r="B196" s="1">
         <v>94</v>
       </c>
@@ -15831,7 +15982,7 @@
       </c>
     </row>
     <row r="197" spans="1:14">
-      <c r="A197" s="45"/>
+      <c r="A197" s="47"/>
       <c r="B197" s="1">
         <v>95</v>
       </c>
@@ -15875,7 +16026,7 @@
       </c>
     </row>
     <row r="198" spans="1:14">
-      <c r="A198" s="45"/>
+      <c r="A198" s="47"/>
       <c r="B198" s="1">
         <v>96</v>
       </c>
@@ -15919,7 +16070,7 @@
       </c>
     </row>
     <row r="199" spans="1:14">
-      <c r="A199" s="45"/>
+      <c r="A199" s="47"/>
       <c r="B199" s="1">
         <v>97</v>
       </c>
@@ -15963,7 +16114,7 @@
       </c>
     </row>
     <row r="200" spans="1:14">
-      <c r="A200" s="45"/>
+      <c r="A200" s="47"/>
       <c r="B200" s="1">
         <v>98</v>
       </c>
@@ -16007,7 +16158,7 @@
       </c>
     </row>
     <row r="201" spans="1:14">
-      <c r="A201" s="45"/>
+      <c r="A201" s="47"/>
       <c r="B201" s="1">
         <v>99</v>
       </c>
@@ -16050,8 +16201,8 @@
         <v>NIE</v>
       </c>
     </row>
-    <row r="202" spans="1:14" ht="14.65" thickBot="1">
-      <c r="A202" s="48"/>
+    <row r="202" spans="1:14" ht="15" thickBot="1">
+      <c r="A202" s="50"/>
       <c r="B202" s="17">
         <v>100</v>
       </c>
@@ -16095,7 +16246,7 @@
       </c>
     </row>
     <row r="203" spans="1:14">
-      <c r="A203" s="47">
+      <c r="A203" s="49">
         <v>1E-3</v>
       </c>
       <c r="B203" s="14">
@@ -16141,7 +16292,7 @@
       </c>
     </row>
     <row r="204" spans="1:14">
-      <c r="A204" s="45"/>
+      <c r="A204" s="47"/>
       <c r="B204" s="1">
         <v>2</v>
       </c>
@@ -16185,7 +16336,7 @@
       </c>
     </row>
     <row r="205" spans="1:14">
-      <c r="A205" s="45"/>
+      <c r="A205" s="47"/>
       <c r="B205" s="1">
         <v>3</v>
       </c>
@@ -16229,7 +16380,7 @@
       </c>
     </row>
     <row r="206" spans="1:14">
-      <c r="A206" s="45"/>
+      <c r="A206" s="47"/>
       <c r="B206" s="1">
         <v>4</v>
       </c>
@@ -16273,7 +16424,7 @@
       </c>
     </row>
     <row r="207" spans="1:14">
-      <c r="A207" s="45"/>
+      <c r="A207" s="47"/>
       <c r="B207" s="1">
         <v>5</v>
       </c>
@@ -16317,7 +16468,7 @@
       </c>
     </row>
     <row r="208" spans="1:14">
-      <c r="A208" s="45"/>
+      <c r="A208" s="47"/>
       <c r="B208" s="1">
         <v>6</v>
       </c>
@@ -16361,7 +16512,7 @@
       </c>
     </row>
     <row r="209" spans="1:14">
-      <c r="A209" s="45"/>
+      <c r="A209" s="47"/>
       <c r="B209" s="1">
         <v>7</v>
       </c>
@@ -16405,7 +16556,7 @@
       </c>
     </row>
     <row r="210" spans="1:14">
-      <c r="A210" s="45"/>
+      <c r="A210" s="47"/>
       <c r="B210" s="1">
         <v>8</v>
       </c>
@@ -16449,7 +16600,7 @@
       </c>
     </row>
     <row r="211" spans="1:14">
-      <c r="A211" s="45"/>
+      <c r="A211" s="47"/>
       <c r="B211" s="1">
         <v>9</v>
       </c>
@@ -16493,7 +16644,7 @@
       </c>
     </row>
     <row r="212" spans="1:14">
-      <c r="A212" s="45"/>
+      <c r="A212" s="47"/>
       <c r="B212" s="1">
         <v>10</v>
       </c>
@@ -16537,7 +16688,7 @@
       </c>
     </row>
     <row r="213" spans="1:14">
-      <c r="A213" s="45"/>
+      <c r="A213" s="47"/>
       <c r="B213" s="1">
         <v>11</v>
       </c>
@@ -16581,7 +16732,7 @@
       </c>
     </row>
     <row r="214" spans="1:14">
-      <c r="A214" s="45"/>
+      <c r="A214" s="47"/>
       <c r="B214" s="1">
         <v>12</v>
       </c>
@@ -16625,7 +16776,7 @@
       </c>
     </row>
     <row r="215" spans="1:14">
-      <c r="A215" s="45"/>
+      <c r="A215" s="47"/>
       <c r="B215" s="1">
         <v>13</v>
       </c>
@@ -16669,7 +16820,7 @@
       </c>
     </row>
     <row r="216" spans="1:14">
-      <c r="A216" s="45"/>
+      <c r="A216" s="47"/>
       <c r="B216" s="1">
         <v>14</v>
       </c>
@@ -16713,7 +16864,7 @@
       </c>
     </row>
     <row r="217" spans="1:14">
-      <c r="A217" s="45"/>
+      <c r="A217" s="47"/>
       <c r="B217" s="1">
         <v>15</v>
       </c>
@@ -16757,7 +16908,7 @@
       </c>
     </row>
     <row r="218" spans="1:14">
-      <c r="A218" s="45"/>
+      <c r="A218" s="47"/>
       <c r="B218" s="1">
         <v>16</v>
       </c>
@@ -16801,7 +16952,7 @@
       </c>
     </row>
     <row r="219" spans="1:14">
-      <c r="A219" s="45"/>
+      <c r="A219" s="47"/>
       <c r="B219" s="1">
         <v>17</v>
       </c>
@@ -16845,7 +16996,7 @@
       </c>
     </row>
     <row r="220" spans="1:14">
-      <c r="A220" s="45"/>
+      <c r="A220" s="47"/>
       <c r="B220" s="1">
         <v>18</v>
       </c>
@@ -16889,7 +17040,7 @@
       </c>
     </row>
     <row r="221" spans="1:14">
-      <c r="A221" s="45"/>
+      <c r="A221" s="47"/>
       <c r="B221" s="1">
         <v>19</v>
       </c>
@@ -16933,7 +17084,7 @@
       </c>
     </row>
     <row r="222" spans="1:14">
-      <c r="A222" s="45"/>
+      <c r="A222" s="47"/>
       <c r="B222" s="1">
         <v>20</v>
       </c>
@@ -16977,7 +17128,7 @@
       </c>
     </row>
     <row r="223" spans="1:14">
-      <c r="A223" s="45"/>
+      <c r="A223" s="47"/>
       <c r="B223" s="1">
         <v>21</v>
       </c>
@@ -17021,7 +17172,7 @@
       </c>
     </row>
     <row r="224" spans="1:14">
-      <c r="A224" s="45"/>
+      <c r="A224" s="47"/>
       <c r="B224" s="1">
         <v>22</v>
       </c>
@@ -17065,7 +17216,7 @@
       </c>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="45"/>
+      <c r="A225" s="47"/>
       <c r="B225" s="1">
         <v>23</v>
       </c>
@@ -17109,7 +17260,7 @@
       </c>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="45"/>
+      <c r="A226" s="47"/>
       <c r="B226" s="1">
         <v>24</v>
       </c>
@@ -17153,7 +17304,7 @@
       </c>
     </row>
     <row r="227" spans="1:14">
-      <c r="A227" s="45"/>
+      <c r="A227" s="47"/>
       <c r="B227" s="1">
         <v>25</v>
       </c>
@@ -17197,7 +17348,7 @@
       </c>
     </row>
     <row r="228" spans="1:14">
-      <c r="A228" s="45"/>
+      <c r="A228" s="47"/>
       <c r="B228" s="1">
         <v>26</v>
       </c>
@@ -17241,7 +17392,7 @@
       </c>
     </row>
     <row r="229" spans="1:14">
-      <c r="A229" s="45"/>
+      <c r="A229" s="47"/>
       <c r="B229" s="1">
         <v>27</v>
       </c>
@@ -17285,7 +17436,7 @@
       </c>
     </row>
     <row r="230" spans="1:14">
-      <c r="A230" s="45"/>
+      <c r="A230" s="47"/>
       <c r="B230" s="1">
         <v>28</v>
       </c>
@@ -17329,7 +17480,7 @@
       </c>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="45"/>
+      <c r="A231" s="47"/>
       <c r="B231" s="1">
         <v>29</v>
       </c>
@@ -17373,7 +17524,7 @@
       </c>
     </row>
     <row r="232" spans="1:14">
-      <c r="A232" s="45"/>
+      <c r="A232" s="47"/>
       <c r="B232" s="1">
         <v>30</v>
       </c>
@@ -17417,7 +17568,7 @@
       </c>
     </row>
     <row r="233" spans="1:14">
-      <c r="A233" s="45"/>
+      <c r="A233" s="47"/>
       <c r="B233" s="1">
         <v>31</v>
       </c>
@@ -17461,7 +17612,7 @@
       </c>
     </row>
     <row r="234" spans="1:14">
-      <c r="A234" s="45"/>
+      <c r="A234" s="47"/>
       <c r="B234" s="1">
         <v>32</v>
       </c>
@@ -17505,7 +17656,7 @@
       </c>
     </row>
     <row r="235" spans="1:14">
-      <c r="A235" s="45"/>
+      <c r="A235" s="47"/>
       <c r="B235" s="1">
         <v>33</v>
       </c>
@@ -17549,7 +17700,7 @@
       </c>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="45"/>
+      <c r="A236" s="47"/>
       <c r="B236" s="1">
         <v>34</v>
       </c>
@@ -17593,7 +17744,7 @@
       </c>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="45"/>
+      <c r="A237" s="47"/>
       <c r="B237" s="1">
         <v>35</v>
       </c>
@@ -17637,7 +17788,7 @@
       </c>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="45"/>
+      <c r="A238" s="47"/>
       <c r="B238" s="1">
         <v>36</v>
       </c>
@@ -17681,7 +17832,7 @@
       </c>
     </row>
     <row r="239" spans="1:14">
-      <c r="A239" s="45"/>
+      <c r="A239" s="47"/>
       <c r="B239" s="1">
         <v>37</v>
       </c>
@@ -17725,7 +17876,7 @@
       </c>
     </row>
     <row r="240" spans="1:14">
-      <c r="A240" s="45"/>
+      <c r="A240" s="47"/>
       <c r="B240" s="1">
         <v>38</v>
       </c>
@@ -17769,7 +17920,7 @@
       </c>
     </row>
     <row r="241" spans="1:14">
-      <c r="A241" s="45"/>
+      <c r="A241" s="47"/>
       <c r="B241" s="1">
         <v>39</v>
       </c>
@@ -17813,7 +17964,7 @@
       </c>
     </row>
     <row r="242" spans="1:14">
-      <c r="A242" s="45"/>
+      <c r="A242" s="47"/>
       <c r="B242" s="1">
         <v>40</v>
       </c>
@@ -17857,7 +18008,7 @@
       </c>
     </row>
     <row r="243" spans="1:14">
-      <c r="A243" s="45"/>
+      <c r="A243" s="47"/>
       <c r="B243" s="1">
         <v>41</v>
       </c>
@@ -17901,7 +18052,7 @@
       </c>
     </row>
     <row r="244" spans="1:14">
-      <c r="A244" s="45"/>
+      <c r="A244" s="47"/>
       <c r="B244" s="1">
         <v>42</v>
       </c>
@@ -17945,7 +18096,7 @@
       </c>
     </row>
     <row r="245" spans="1:14">
-      <c r="A245" s="45"/>
+      <c r="A245" s="47"/>
       <c r="B245" s="1">
         <v>43</v>
       </c>
@@ -17989,7 +18140,7 @@
       </c>
     </row>
     <row r="246" spans="1:14">
-      <c r="A246" s="45"/>
+      <c r="A246" s="47"/>
       <c r="B246" s="1">
         <v>44</v>
       </c>
@@ -18033,7 +18184,7 @@
       </c>
     </row>
     <row r="247" spans="1:14">
-      <c r="A247" s="45"/>
+      <c r="A247" s="47"/>
       <c r="B247" s="1">
         <v>45</v>
       </c>
@@ -18077,7 +18228,7 @@
       </c>
     </row>
     <row r="248" spans="1:14">
-      <c r="A248" s="45"/>
+      <c r="A248" s="47"/>
       <c r="B248" s="1">
         <v>46</v>
       </c>
@@ -18121,7 +18272,7 @@
       </c>
     </row>
     <row r="249" spans="1:14">
-      <c r="A249" s="45"/>
+      <c r="A249" s="47"/>
       <c r="B249" s="1">
         <v>47</v>
       </c>
@@ -18165,7 +18316,7 @@
       </c>
     </row>
     <row r="250" spans="1:14">
-      <c r="A250" s="45"/>
+      <c r="A250" s="47"/>
       <c r="B250" s="1">
         <v>48</v>
       </c>
@@ -18209,7 +18360,7 @@
       </c>
     </row>
     <row r="251" spans="1:14">
-      <c r="A251" s="45"/>
+      <c r="A251" s="47"/>
       <c r="B251" s="1">
         <v>49</v>
       </c>
@@ -18253,7 +18404,7 @@
       </c>
     </row>
     <row r="252" spans="1:14">
-      <c r="A252" s="45"/>
+      <c r="A252" s="47"/>
       <c r="B252" s="1">
         <v>50</v>
       </c>
@@ -18297,7 +18448,7 @@
       </c>
     </row>
     <row r="253" spans="1:14">
-      <c r="A253" s="45"/>
+      <c r="A253" s="47"/>
       <c r="B253" s="1">
         <v>51</v>
       </c>
@@ -18341,7 +18492,7 @@
       </c>
     </row>
     <row r="254" spans="1:14">
-      <c r="A254" s="45"/>
+      <c r="A254" s="47"/>
       <c r="B254" s="1">
         <v>52</v>
       </c>
@@ -18385,7 +18536,7 @@
       </c>
     </row>
     <row r="255" spans="1:14">
-      <c r="A255" s="45"/>
+      <c r="A255" s="47"/>
       <c r="B255" s="1">
         <v>53</v>
       </c>
@@ -18429,7 +18580,7 @@
       </c>
     </row>
     <row r="256" spans="1:14">
-      <c r="A256" s="45"/>
+      <c r="A256" s="47"/>
       <c r="B256" s="1">
         <v>54</v>
       </c>
@@ -18473,7 +18624,7 @@
       </c>
     </row>
     <row r="257" spans="1:14">
-      <c r="A257" s="45"/>
+      <c r="A257" s="47"/>
       <c r="B257" s="1">
         <v>55</v>
       </c>
@@ -18517,7 +18668,7 @@
       </c>
     </row>
     <row r="258" spans="1:14">
-      <c r="A258" s="45"/>
+      <c r="A258" s="47"/>
       <c r="B258" s="1">
         <v>56</v>
       </c>
@@ -18561,7 +18712,7 @@
       </c>
     </row>
     <row r="259" spans="1:14">
-      <c r="A259" s="45"/>
+      <c r="A259" s="47"/>
       <c r="B259" s="1">
         <v>57</v>
       </c>
@@ -18605,7 +18756,7 @@
       </c>
     </row>
     <row r="260" spans="1:14">
-      <c r="A260" s="45"/>
+      <c r="A260" s="47"/>
       <c r="B260" s="1">
         <v>58</v>
       </c>
@@ -18649,7 +18800,7 @@
       </c>
     </row>
     <row r="261" spans="1:14">
-      <c r="A261" s="45"/>
+      <c r="A261" s="47"/>
       <c r="B261" s="1">
         <v>59</v>
       </c>
@@ -18693,7 +18844,7 @@
       </c>
     </row>
     <row r="262" spans="1:14">
-      <c r="A262" s="45"/>
+      <c r="A262" s="47"/>
       <c r="B262" s="1">
         <v>60</v>
       </c>
@@ -18737,7 +18888,7 @@
       </c>
     </row>
     <row r="263" spans="1:14">
-      <c r="A263" s="45"/>
+      <c r="A263" s="47"/>
       <c r="B263" s="1">
         <v>61</v>
       </c>
@@ -18781,7 +18932,7 @@
       </c>
     </row>
     <row r="264" spans="1:14">
-      <c r="A264" s="45"/>
+      <c r="A264" s="47"/>
       <c r="B264" s="1">
         <v>62</v>
       </c>
@@ -18825,7 +18976,7 @@
       </c>
     </row>
     <row r="265" spans="1:14">
-      <c r="A265" s="45"/>
+      <c r="A265" s="47"/>
       <c r="B265" s="1">
         <v>63</v>
       </c>
@@ -18869,7 +19020,7 @@
       </c>
     </row>
     <row r="266" spans="1:14">
-      <c r="A266" s="45"/>
+      <c r="A266" s="47"/>
       <c r="B266" s="1">
         <v>64</v>
       </c>
@@ -18913,7 +19064,7 @@
       </c>
     </row>
     <row r="267" spans="1:14">
-      <c r="A267" s="45"/>
+      <c r="A267" s="47"/>
       <c r="B267" s="1">
         <v>65</v>
       </c>
@@ -18957,7 +19108,7 @@
       </c>
     </row>
     <row r="268" spans="1:14">
-      <c r="A268" s="45"/>
+      <c r="A268" s="47"/>
       <c r="B268" s="1">
         <v>66</v>
       </c>
@@ -19001,7 +19152,7 @@
       </c>
     </row>
     <row r="269" spans="1:14">
-      <c r="A269" s="45"/>
+      <c r="A269" s="47"/>
       <c r="B269" s="1">
         <v>67</v>
       </c>
@@ -19045,7 +19196,7 @@
       </c>
     </row>
     <row r="270" spans="1:14">
-      <c r="A270" s="45"/>
+      <c r="A270" s="47"/>
       <c r="B270" s="1">
         <v>68</v>
       </c>
@@ -19089,7 +19240,7 @@
       </c>
     </row>
     <row r="271" spans="1:14">
-      <c r="A271" s="45"/>
+      <c r="A271" s="47"/>
       <c r="B271" s="1">
         <v>69</v>
       </c>
@@ -19133,7 +19284,7 @@
       </c>
     </row>
     <row r="272" spans="1:14">
-      <c r="A272" s="45"/>
+      <c r="A272" s="47"/>
       <c r="B272" s="1">
         <v>70</v>
       </c>
@@ -19177,7 +19328,7 @@
       </c>
     </row>
     <row r="273" spans="1:14">
-      <c r="A273" s="45"/>
+      <c r="A273" s="47"/>
       <c r="B273" s="1">
         <v>71</v>
       </c>
@@ -19221,7 +19372,7 @@
       </c>
     </row>
     <row r="274" spans="1:14">
-      <c r="A274" s="45"/>
+      <c r="A274" s="47"/>
       <c r="B274" s="1">
         <v>72</v>
       </c>
@@ -19265,7 +19416,7 @@
       </c>
     </row>
     <row r="275" spans="1:14">
-      <c r="A275" s="45"/>
+      <c r="A275" s="47"/>
       <c r="B275" s="1">
         <v>73</v>
       </c>
@@ -19309,7 +19460,7 @@
       </c>
     </row>
     <row r="276" spans="1:14">
-      <c r="A276" s="45"/>
+      <c r="A276" s="47"/>
       <c r="B276" s="1">
         <v>74</v>
       </c>
@@ -19353,7 +19504,7 @@
       </c>
     </row>
     <row r="277" spans="1:14">
-      <c r="A277" s="45"/>
+      <c r="A277" s="47"/>
       <c r="B277" s="1">
         <v>75</v>
       </c>
@@ -19397,7 +19548,7 @@
       </c>
     </row>
     <row r="278" spans="1:14">
-      <c r="A278" s="45"/>
+      <c r="A278" s="47"/>
       <c r="B278" s="1">
         <v>76</v>
       </c>
@@ -19441,7 +19592,7 @@
       </c>
     </row>
     <row r="279" spans="1:14">
-      <c r="A279" s="45"/>
+      <c r="A279" s="47"/>
       <c r="B279" s="1">
         <v>77</v>
       </c>
@@ -19485,7 +19636,7 @@
       </c>
     </row>
     <row r="280" spans="1:14">
-      <c r="A280" s="45"/>
+      <c r="A280" s="47"/>
       <c r="B280" s="1">
         <v>78</v>
       </c>
@@ -19529,7 +19680,7 @@
       </c>
     </row>
     <row r="281" spans="1:14">
-      <c r="A281" s="45"/>
+      <c r="A281" s="47"/>
       <c r="B281" s="1">
         <v>79</v>
       </c>
@@ -19573,7 +19724,7 @@
       </c>
     </row>
     <row r="282" spans="1:14">
-      <c r="A282" s="45"/>
+      <c r="A282" s="47"/>
       <c r="B282" s="1">
         <v>80</v>
       </c>
@@ -19617,7 +19768,7 @@
       </c>
     </row>
     <row r="283" spans="1:14">
-      <c r="A283" s="45"/>
+      <c r="A283" s="47"/>
       <c r="B283" s="1">
         <v>81</v>
       </c>
@@ -19661,7 +19812,7 @@
       </c>
     </row>
     <row r="284" spans="1:14">
-      <c r="A284" s="45"/>
+      <c r="A284" s="47"/>
       <c r="B284" s="1">
         <v>82</v>
       </c>
@@ -19705,7 +19856,7 @@
       </c>
     </row>
     <row r="285" spans="1:14">
-      <c r="A285" s="45"/>
+      <c r="A285" s="47"/>
       <c r="B285" s="1">
         <v>83</v>
       </c>
@@ -19749,7 +19900,7 @@
       </c>
     </row>
     <row r="286" spans="1:14">
-      <c r="A286" s="45"/>
+      <c r="A286" s="47"/>
       <c r="B286" s="1">
         <v>84</v>
       </c>
@@ -19793,7 +19944,7 @@
       </c>
     </row>
     <row r="287" spans="1:14">
-      <c r="A287" s="45"/>
+      <c r="A287" s="47"/>
       <c r="B287" s="1">
         <v>85</v>
       </c>
@@ -19837,7 +19988,7 @@
       </c>
     </row>
     <row r="288" spans="1:14">
-      <c r="A288" s="45"/>
+      <c r="A288" s="47"/>
       <c r="B288" s="1">
         <v>86</v>
       </c>
@@ -19881,7 +20032,7 @@
       </c>
     </row>
     <row r="289" spans="1:14">
-      <c r="A289" s="45"/>
+      <c r="A289" s="47"/>
       <c r="B289" s="1">
         <v>87</v>
       </c>
@@ -19925,7 +20076,7 @@
       </c>
     </row>
     <row r="290" spans="1:14">
-      <c r="A290" s="45"/>
+      <c r="A290" s="47"/>
       <c r="B290" s="1">
         <v>88</v>
       </c>
@@ -19969,7 +20120,7 @@
       </c>
     </row>
     <row r="291" spans="1:14">
-      <c r="A291" s="45"/>
+      <c r="A291" s="47"/>
       <c r="B291" s="1">
         <v>89</v>
       </c>
@@ -20013,7 +20164,7 @@
       </c>
     </row>
     <row r="292" spans="1:14">
-      <c r="A292" s="45"/>
+      <c r="A292" s="47"/>
       <c r="B292" s="1">
         <v>90</v>
       </c>
@@ -20057,7 +20208,7 @@
       </c>
     </row>
     <row r="293" spans="1:14">
-      <c r="A293" s="45"/>
+      <c r="A293" s="47"/>
       <c r="B293" s="1">
         <v>91</v>
       </c>
@@ -20101,7 +20252,7 @@
       </c>
     </row>
     <row r="294" spans="1:14">
-      <c r="A294" s="45"/>
+      <c r="A294" s="47"/>
       <c r="B294" s="1">
         <v>92</v>
       </c>
@@ -20145,7 +20296,7 @@
       </c>
     </row>
     <row r="295" spans="1:14">
-      <c r="A295" s="45"/>
+      <c r="A295" s="47"/>
       <c r="B295" s="1">
         <v>93</v>
       </c>
@@ -20189,7 +20340,7 @@
       </c>
     </row>
     <row r="296" spans="1:14">
-      <c r="A296" s="45"/>
+      <c r="A296" s="47"/>
       <c r="B296" s="1">
         <v>94</v>
       </c>
@@ -20233,7 +20384,7 @@
       </c>
     </row>
     <row r="297" spans="1:14">
-      <c r="A297" s="45"/>
+      <c r="A297" s="47"/>
       <c r="B297" s="1">
         <v>95</v>
       </c>
@@ -20277,7 +20428,7 @@
       </c>
     </row>
     <row r="298" spans="1:14">
-      <c r="A298" s="45"/>
+      <c r="A298" s="47"/>
       <c r="B298" s="1">
         <v>96</v>
       </c>
@@ -20321,7 +20472,7 @@
       </c>
     </row>
     <row r="299" spans="1:14">
-      <c r="A299" s="45"/>
+      <c r="A299" s="47"/>
       <c r="B299" s="1">
         <v>97</v>
       </c>
@@ -20365,7 +20516,7 @@
       </c>
     </row>
     <row r="300" spans="1:14">
-      <c r="A300" s="45"/>
+      <c r="A300" s="47"/>
       <c r="B300" s="1">
         <v>98</v>
       </c>
@@ -20409,7 +20560,7 @@
       </c>
     </row>
     <row r="301" spans="1:14">
-      <c r="A301" s="45"/>
+      <c r="A301" s="47"/>
       <c r="B301" s="1">
         <v>99</v>
       </c>
@@ -20452,8 +20603,8 @@
         <v>NIE</v>
       </c>
     </row>
-    <row r="302" spans="1:14" ht="14.65" thickBot="1">
-      <c r="A302" s="46"/>
+    <row r="302" spans="1:14" ht="15" thickBot="1">
+      <c r="A302" s="48"/>
       <c r="B302" s="3">
         <v>100</v>
       </c>
@@ -20522,34 +20673,34 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.53125" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
     <col min="6" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="49" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="58"/>
+      <c r="A2" s="60"/>
       <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
@@ -20585,7 +20736,7 @@
       <c r="A3" s="20">
         <v>0.1</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="44">
         <f>AVERAGE('Tabela 1'!E3:E102)</f>
         <v>7.6360549406451198E-6</v>
       </c>
@@ -20593,11 +20744,11 @@
         <f>AVERAGE('Tabela 1'!F3:F102)</f>
         <v>8.5236444058340327E-2</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="44">
         <f>AVERAGE('Tabela 1'!G3:G102)</f>
         <v>0.65083099937797284</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="44">
         <f>AVERAGE('Tabela 1'!H3:H102)</f>
         <v>285.95999999999998</v>
       </c>
@@ -20605,7 +20756,7 @@
         <f>COUNTIF('Tabela 1'!I3:I102,"TAK")</f>
         <v>24</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="44">
         <f>AVERAGE('Tabela 1'!J3:J102)</f>
         <v>1.3394609118866363E-7</v>
       </c>
@@ -20613,11 +20764,11 @@
         <f>AVERAGE('Tabela 1'!K3:K102)</f>
         <v>3.8733315250240923E-2</v>
       </c>
-      <c r="I3" s="68">
+      <c r="I3" s="44">
         <f>AVERAGE('Tabela 1'!L3:L102)</f>
         <v>0.6880193443057917</v>
       </c>
-      <c r="J3" s="68">
+      <c r="J3" s="44">
         <f>AVERAGE('Tabela 1'!M3:M102)</f>
         <v>281.86</v>
       </c>
@@ -20630,7 +20781,7 @@
       <c r="A4" s="18">
         <v>0.01</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="45">
         <f>AVERAGE('Tabela 1'!E103:E202)</f>
         <v>-4.6478392985809407E-2</v>
       </c>
@@ -20638,11 +20789,11 @@
         <f>AVERAGE('Tabela 1'!F103:F202)</f>
         <v>1.548909901971224E-2</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="45">
         <f>AVERAGE('Tabela 1'!G103:G202)</f>
         <v>0.65702754247081185</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="45">
         <f>AVERAGE('Tabela 1'!H103:H202)</f>
         <v>311.48</v>
       </c>
@@ -20650,7 +20801,7 @@
         <f>COUNTIF('Tabela 1'!I102:I203,"TAK")</f>
         <v>24</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="45">
         <f>AVERAGE('Tabela 1'!J103:J202)</f>
         <v>-4.6480334803908729E-2</v>
       </c>
@@ -20658,11 +20809,11 @@
         <f>AVERAGE('Tabela 1'!K103:K202)</f>
         <v>1.5497377750240843E-2</v>
       </c>
-      <c r="I4" s="69">
+      <c r="I4" s="45">
         <f>AVERAGE('Tabela 1'!L103:L202)</f>
         <v>0.68182094374601065</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="45">
         <f>AVERAGE('Tabela 1'!M103:M202)</f>
         <v>270.99</v>
       </c>
@@ -20671,7 +20822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.65" thickBot="1">
+    <row r="5" spans="1:11" ht="15" thickBot="1">
       <c r="A5" s="19">
         <v>1E-3</v>
       </c>
@@ -20729,33 +20880,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.149999999999999" thickBot="1">
-      <c r="A2" s="60"/>
+      <c r="E1" s="66"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.2" thickBot="1">
+      <c r="A2" s="62"/>
       <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
@@ -20769,7 +20920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:11">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -20778,7 +20929,7 @@
       <c r="D3" s="16"/>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:11">
       <c r="A4" s="24">
         <v>2</v>
       </c>
@@ -20786,8 +20937,14 @@
       <c r="C4" s="2"/>
       <c r="D4" s="13"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="H4" t="s">
+        <v>1946</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="24">
         <v>3</v>
       </c>
@@ -20796,7 +20953,7 @@
       <c r="D5" s="13"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:11">
       <c r="A6" s="24">
         <v>4</v>
       </c>
@@ -20805,7 +20962,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:11">
       <c r="A7" s="24">
         <v>5</v>
       </c>
@@ -20814,7 +20971,7 @@
       <c r="D7" s="13"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:11">
       <c r="A8" s="24">
         <v>6</v>
       </c>
@@ -20823,7 +20980,7 @@
       <c r="D8" s="13"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:11">
       <c r="A9" s="24">
         <v>7</v>
       </c>
@@ -20832,7 +20989,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:11">
       <c r="A10" s="24">
         <v>8</v>
       </c>
@@ -20841,7 +20998,7 @@
       <c r="D10" s="13"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:11">
       <c r="A11" s="24">
         <v>9</v>
       </c>
@@ -20850,7 +21007,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:11">
       <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
@@ -20866,6 +21023,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20877,30 +21035,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="9" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="49" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-    </row>
-    <row r="2" spans="1:9" ht="28.9" thickBot="1">
-      <c r="A2" s="58"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
+    </row>
+    <row r="2" spans="1:9" ht="29.4" thickBot="1">
+      <c r="A2" s="60"/>
       <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
@@ -20926,7 +21084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.65" thickBot="1">
+    <row r="3" spans="1:9" ht="15" thickBot="1">
       <c r="A3" s="26"/>
       <c r="B3" s="27"/>
       <c r="C3" s="28"/>
@@ -20949,32 +21107,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="47" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="67"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.65" thickBot="1">
-      <c r="A2" s="65"/>
+      <c r="E1" s="69"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1">
+      <c r="A2" s="67"/>
       <c r="B2" s="32" t="s">
         <v>19</v>
       </c>
@@ -20988,98 +21146,101 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:10">
       <c r="A3" s="23"/>
       <c r="B3" s="12"/>
       <c r="C3" s="5"/>
       <c r="D3" s="8"/>
       <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="J3" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="24"/>
       <c r="B4" s="13"/>
       <c r="C4" s="2"/>
       <c r="D4" s="9"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10">
       <c r="A5" s="24"/>
       <c r="B5" s="13"/>
       <c r="C5" s="2"/>
       <c r="D5" s="9"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10">
       <c r="A6" s="24"/>
       <c r="B6" s="13"/>
       <c r="C6" s="2"/>
       <c r="D6" s="9"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10">
       <c r="A7" s="24"/>
       <c r="B7" s="13"/>
       <c r="C7" s="2"/>
       <c r="D7" s="9"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10">
       <c r="A8" s="24"/>
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:10">
       <c r="A9" s="24"/>
       <c r="B9" s="13"/>
       <c r="C9" s="2"/>
       <c r="D9" s="9"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:10">
       <c r="A10" s="24"/>
       <c r="B10" s="13"/>
       <c r="C10" s="2"/>
       <c r="D10" s="9"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:10">
       <c r="A11" s="24"/>
       <c r="B11" s="13"/>
       <c r="C11" s="2"/>
       <c r="D11" s="9"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:10">
       <c r="A12" s="24"/>
       <c r="B12" s="13"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:10">
       <c r="A13" s="24"/>
       <c r="B13" s="13"/>
       <c r="C13" s="2"/>
       <c r="D13" s="9"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:10">
       <c r="A14" s="24"/>
       <c r="B14" s="13"/>
       <c r="C14" s="2"/>
       <c r="D14" s="9"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:10">
       <c r="A15" s="24"/>
       <c r="B15" s="13"/>
       <c r="C15" s="2"/>
       <c r="D15" s="9"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:10">
       <c r="A16" s="24"/>
       <c r="B16" s="13"/>
       <c r="C16" s="2"/>
@@ -21178,6 +21339,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -21189,14 +21351,14 @@
       <selection activeCell="D2" sqref="D2:G301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -28138,13 +28300,13 @@
       <selection activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/KONCOWY.xlsx
+++ b/KONCOWY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A02BD62-8194-4B42-847E-C64AABDFC6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6A11EC-F54D-4B4A-A9EE-81ABF85866BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -9184,7 +9184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D274" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -23188,8 +23188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -23257,16 +23257,16 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="22">
-        <f>AVERAGE('Tabela 1'!E3:E102)</f>
-        <v>7.6360549406451198E-6</v>
-      </c>
-      <c r="C3" s="6">
-        <f>AVERAGE('Tabela 1'!F3:F102)</f>
-        <v>8.5236444058340327E-2</v>
+        <f>AVERAGE('Tabela 1'!E12,'Tabela 1'!E14,'Tabela 1'!E17,'Tabela 1'!E21,'Tabela 1'!E25,'Tabela 1'!E27,'Tabela 1'!E29,'Tabela 1'!E35,'Tabela 1'!E40,'Tabela 1'!E49,'Tabela 1'!E51,'Tabela 1'!E55,'Tabela 1'!E54)</f>
+        <v>-5.9599351790398949E-2</v>
+      </c>
+      <c r="C3" s="22">
+        <f>AVERAGE('Tabela 1'!F12,'Tabela 1'!F14,'Tabela 1'!F17,'Tabela 1'!F21,'Tabela 1'!F25,'Tabela 1'!F27,'Tabela 1'!F29,'Tabela 1'!F35,'Tabela 1'!F40,'Tabela 1'!F49,'Tabela 1'!F51,'Tabela 1'!F55,'Tabela 1'!F54)</f>
+        <v>-5.5560850930880913E-7</v>
       </c>
       <c r="D3" s="22">
-        <f>AVERAGE('Tabela 1'!G3:G102)</f>
-        <v>0.65083099937797284</v>
+        <f>AVERAGE('Tabela 1'!G12,'Tabela 1'!G14,'Tabela 1'!G17,'Tabela 1'!G21,'Tabela 1'!G25,'Tabela 1'!G27,'Tabela 1'!G29,'Tabela 1'!G35,'Tabela 1'!G40,'Tabela 1'!G49,'Tabela 1'!G51,'Tabela 1'!G55,'Tabela 1'!G54)</f>
+        <v>4.7679798416255033E-2</v>
       </c>
       <c r="E3" s="22">
         <f>AVERAGE('Tabela 1'!H3:H102)</f>
@@ -23277,16 +23277,16 @@
         <v>24</v>
       </c>
       <c r="G3" s="22">
-        <f>AVERAGE('Tabela 1'!J3:J102)</f>
-        <v>1.3394609118866363E-7</v>
-      </c>
-      <c r="H3" s="6">
-        <f>AVERAGE('Tabela 1'!K3:K102)</f>
-        <v>3.8733315250240923E-2</v>
+        <f>AVERAGE('Tabela 1'!J12,'Tabela 1'!J14,'Tabela 1'!J17,'Tabela 1'!J22,'Tabela 1'!J21,'Tabela 1'!J25,'Tabela 1'!J27,'Tabela 1'!J29,'Tabela 1'!J35,'Tabela 1'!J40,'Tabela 1'!J49,'Tabela 1'!J51,'Tabela 1'!J54,'Tabela 1'!J56,'Tabela 1'!J58,'Tabela 1'!J62,'Tabela 1'!J65,'Tabela 1'!J66,'Tabela 1'!J75,'Tabela 1'!J79,'Tabela 1'!J83,'Tabela 1'!J87,'Tabela 1'!J89,'Tabela 1'!J98)</f>
+        <v>7.2927673390301629E-6</v>
+      </c>
+      <c r="H3" s="22">
+        <f>AVERAGE('Tabela 1'!K12,'Tabela 1'!K14,'Tabela 1'!K17,'Tabela 1'!K22,'Tabela 1'!K21,'Tabela 1'!K25,'Tabela 1'!K27,'Tabela 1'!K29,'Tabela 1'!K35,'Tabela 1'!K40,'Tabela 1'!K49,'Tabela 1'!K51,'Tabela 1'!K54,'Tabela 1'!K56,'Tabela 1'!K58,'Tabela 1'!K62,'Tabela 1'!K65,'Tabela 1'!K66,'Tabela 1'!K75,'Tabela 1'!K79,'Tabela 1'!K83,'Tabela 1'!K87,'Tabela 1'!K89,'Tabela 1'!K98)</f>
+        <v>-7.4920269929417449E-6</v>
       </c>
       <c r="I3" s="22">
-        <f>AVERAGE('Tabela 1'!L3:L102)</f>
-        <v>0.6880193443057917</v>
+        <f>AVERAGE('Tabela 1'!L12,'Tabela 1'!L14,'Tabela 1'!L17,'Tabela 1'!L22,'Tabela 1'!L21,'Tabela 1'!L25,'Tabela 1'!L27,'Tabela 1'!L29,'Tabela 1'!L35,'Tabela 1'!L40,'Tabela 1'!L49,'Tabela 1'!L51,'Tabela 1'!L54,'Tabela 1'!L56,'Tabela 1'!L58,'Tabela 1'!L62,'Tabela 1'!L65,'Tabela 1'!L66,'Tabela 1'!L75,'Tabela 1'!L79,'Tabela 1'!L83,'Tabela 1'!L87,'Tabela 1'!L89,'Tabela 1'!L98)</f>
+        <v>7.7629152143524898E-8</v>
       </c>
       <c r="J3" s="22">
         <f>AVERAGE('Tabela 1'!M3:M102)</f>
@@ -23302,16 +23302,16 @@
         <v>0.01</v>
       </c>
       <c r="B4" s="24">
-        <f>AVERAGE('Tabela 1'!E103:E202)</f>
-        <v>-4.6478392985809407E-2</v>
-      </c>
-      <c r="C4" s="12">
-        <f>AVERAGE('Tabela 1'!F103:F202)</f>
-        <v>1.548909901971224E-2</v>
+        <f>AVERAGE('Tabela 1'!E112,'Tabela 1'!E114,'Tabela 1'!E116,'Tabela 1'!E117,'Tabela 1'!E121,'Tabela 1'!E122,'Tabela 1'!E127,'Tabela 1'!E129,'Tabela 1'!E135,'Tabela 1'!E151,'Tabela 1'!E154,'Tabela 1'!E156,'Tabela 1'!E158,'Tabela 1'!E162,'Tabela 1'!E165,'Tabela 1'!E166,'Tabela 1'!E175,'Tabela 1'!E179,'Tabela 1'!E183,'Tabela 1'!E187,'Tabela 1'!E189,'Tabela 1'!E190,'Tabela 1'!E191,'Tabela 1'!E198)</f>
+        <v>-7.2717021497066477E-10</v>
+      </c>
+      <c r="C4" s="24">
+        <f>AVERAGE('Tabela 1'!F112,'Tabela 1'!F114,'Tabela 1'!F116,'Tabela 1'!F117,'Tabela 1'!F121,'Tabela 1'!F122,'Tabela 1'!F127,'Tabela 1'!F129,'Tabela 1'!F135,'Tabela 1'!F151,'Tabela 1'!F154,'Tabela 1'!F156,'Tabela 1'!F158,'Tabela 1'!F162,'Tabela 1'!F165,'Tabela 1'!F166,'Tabela 1'!F175,'Tabela 1'!F179,'Tabela 1'!F183,'Tabela 1'!F187,'Tabela 1'!F189,'Tabela 1'!F190,'Tabela 1'!F191,'Tabela 1'!F198)</f>
+        <v>-2.8299117614414055E-7</v>
       </c>
       <c r="D4" s="24">
-        <f>AVERAGE('Tabela 1'!G103:G202)</f>
-        <v>0.65702754247081185</v>
+        <f>AVERAGE('Tabela 1'!G112,'Tabela 1'!G114,'Tabela 1'!G116,'Tabela 1'!G117,'Tabela 1'!G121,'Tabela 1'!G122,'Tabela 1'!G127,'Tabela 1'!G129,'Tabela 1'!G135,'Tabela 1'!G151,'Tabela 1'!G154,'Tabela 1'!G156,'Tabela 1'!G158,'Tabela 1'!G162,'Tabela 1'!G165,'Tabela 1'!G166,'Tabela 1'!G175,'Tabela 1'!G179,'Tabela 1'!G183,'Tabela 1'!G187,'Tabela 1'!G189,'Tabela 1'!G190,'Tabela 1'!G191,'Tabela 1'!G198)</f>
+        <v>1.0212080255496863E-10</v>
       </c>
       <c r="E4" s="24">
         <f>AVERAGE('Tabela 1'!H103:H202)</f>
@@ -23322,16 +23322,16 @@
         <v>24</v>
       </c>
       <c r="G4" s="24">
-        <f>AVERAGE('Tabela 1'!J103:J202)</f>
-        <v>-4.6480334803908729E-2</v>
-      </c>
-      <c r="H4" s="12">
-        <f>AVERAGE('Tabela 1'!K103:K202)</f>
-        <v>1.5497377750240843E-2</v>
+        <f>AVERAGE('Tabela 1'!J112,'Tabela 1'!J114,'Tabela 1'!J117,'Tabela 1'!J121,'Tabela 1'!J122,'Tabela 1'!J127,'Tabela 1'!J129,'Tabela 1'!J135,'Tabela 1'!J151,'Tabela 1'!J154,'Tabela 1'!J156,'Tabela 1'!J158,'Tabela 1'!J162,'Tabela 1'!J165,'Tabela 1'!J166,'Tabela 1'!J175,'Tabela 1'!J179,'Tabela 1'!J183,'Tabela 1'!J187,'Tabela 1'!J189,'Tabela 1'!J190,'Tabela 1'!J191,'Tabela 1'!J198)</f>
+        <v>2.7933476416268649E-6</v>
+      </c>
+      <c r="H4" s="24">
+        <f>AVERAGE('Tabela 1'!K112,'Tabela 1'!K114,'Tabela 1'!K117,'Tabela 1'!K121,'Tabela 1'!K122,'Tabela 1'!K127,'Tabela 1'!K129,'Tabela 1'!K135,'Tabela 1'!K151,'Tabela 1'!K154,'Tabela 1'!K156,'Tabela 1'!K158,'Tabela 1'!K162,'Tabela 1'!K165,'Tabela 1'!K166,'Tabela 1'!K175,'Tabela 1'!K179,'Tabela 1'!K183,'Tabela 1'!K187,'Tabela 1'!K189,'Tabela 1'!K190,'Tabela 1'!K191,'Tabela 1'!K198)</f>
+        <v>8.995245685468756E-6</v>
       </c>
       <c r="I4" s="24">
-        <f>AVERAGE('Tabela 1'!L103:L202)</f>
-        <v>0.68182094374601065</v>
+        <f>AVERAGE('Tabela 1'!L112,'Tabela 1'!L114,'Tabela 1'!L117,'Tabela 1'!L121,'Tabela 1'!L122,'Tabela 1'!L127,'Tabela 1'!L129,'Tabela 1'!L135,'Tabela 1'!L151,'Tabela 1'!L154,'Tabela 1'!L156,'Tabela 1'!L158,'Tabela 1'!L162,'Tabela 1'!L165,'Tabela 1'!L166,'Tabela 1'!L175,'Tabela 1'!L179,'Tabela 1'!L183,'Tabela 1'!L187,'Tabela 1'!L189,'Tabela 1'!L190,'Tabela 1'!L191,'Tabela 1'!L198)</f>
+        <v>2.762593842575707E-8</v>
       </c>
       <c r="J4" s="24">
         <f>AVERAGE('Tabela 1'!M103:M202)</f>
@@ -23346,17 +23346,17 @@
       <c r="A5" s="26">
         <v>1E-3</v>
       </c>
-      <c r="B5" s="27">
-        <f>AVERAGE('Tabela 1'!E203:E302)</f>
-        <v>-5.3681398098196123E-2</v>
-      </c>
-      <c r="C5" s="18">
-        <f>AVERAGE('Tabela 1'!F203:F302)</f>
-        <v>3.3062628270376343E-2</v>
-      </c>
-      <c r="D5" s="27">
-        <f>AVERAGE('Tabela 1'!G203:G302)</f>
-        <v>0.6660215890929494</v>
+      <c r="B5" s="28">
+        <f>AVERAGE('Tabela 1'!E207,'Tabela 1'!E211,'Tabela 1'!E212,'Tabela 1'!E214,'Tabela 1'!E217,'Tabela 1'!E221,'Tabela 1'!E222,'Tabela 1'!E227,'Tabela 1'!E235,'Tabela 1'!E251,'Tabela 1'!E256,'Tabela 1'!E258,'Tabela 1'!E259,'Tabela 1'!E262,'Tabela 1'!E265,'Tabela 1'!E266,'Tabela 1'!E275,'Tabela 1'!E279,'Tabela 1'!E283,'Tabela 1'!E287,'Tabela 1'!E289,'Tabela 1'!E290,'Tabela 1'!E291,'Tabela 1'!E298)</f>
+        <v>5.6464029048763926E-9</v>
+      </c>
+      <c r="C5" s="28">
+        <f>AVERAGE('Tabela 1'!F207,'Tabela 1'!F211,'Tabela 1'!F212,'Tabela 1'!F214,'Tabela 1'!F217,'Tabela 1'!F221,'Tabela 1'!F222,'Tabela 1'!F227,'Tabela 1'!F235,'Tabela 1'!F251,'Tabela 1'!F256,'Tabela 1'!F258,'Tabela 1'!F259,'Tabela 1'!F262,'Tabela 1'!F265,'Tabela 1'!F266,'Tabela 1'!F275,'Tabela 1'!F279,'Tabela 1'!F283,'Tabela 1'!F287,'Tabela 1'!F289,'Tabela 1'!F290,'Tabela 1'!F291,'Tabela 1'!F298)</f>
+        <v>-2.4747027033473775E-6</v>
+      </c>
+      <c r="D5" s="28">
+        <f>AVERAGE('Tabela 1'!G207,'Tabela 1'!G211,'Tabela 1'!G212,'Tabela 1'!G214,'Tabela 1'!G217,'Tabela 1'!G221,'Tabela 1'!G222,'Tabela 1'!G227,'Tabela 1'!G235,'Tabela 1'!G251,'Tabela 1'!G256,'Tabela 1'!G258,'Tabela 1'!G259,'Tabela 1'!G262,'Tabela 1'!G265,'Tabela 1'!G266,'Tabela 1'!G275,'Tabela 1'!G279,'Tabela 1'!G283,'Tabela 1'!G287,'Tabela 1'!G289,'Tabela 1'!G290,'Tabela 1'!G291,'Tabela 1'!G298)</f>
+        <v>1.474942661524218E-8</v>
       </c>
       <c r="E5" s="27">
         <f>AVERAGE('Tabela 1'!H203:H302)</f>
@@ -23367,16 +23367,16 @@
         <v>24</v>
       </c>
       <c r="G5" s="28">
-        <f>AVERAGE('Tabela 1'!J203:J302)</f>
-        <v>-5.4223147303908717E-2</v>
-      </c>
-      <c r="H5" s="18">
-        <f>AVERAGE('Tabela 1'!K203:K302)</f>
-        <v>1.5495502750240848E-2</v>
-      </c>
-      <c r="I5" s="27">
-        <f>AVERAGE('Tabela 1'!L203:L302)</f>
-        <v>0.68801936865835589</v>
+        <f>AVERAGE('Tabela 1'!J212,'Tabela 1'!J214,'Tabela 1'!J217,'Tabela 1'!J221,'Tabela 1'!J222,'Tabela 1'!J227,'Tabela 1'!J229,'Tabela 1'!J235,'Tabela 1'!J251,'Tabela 1'!J256,'Tabela 1'!J258,'Tabela 1'!J262,'Tabela 1'!J265,'Tabela 1'!J266,'Tabela 1'!J275,'Tabela 1'!J279,'Tabela 1'!J283,'Tabela 1'!J287,'Tabela 1'!J289,'Tabela 1'!J290,'Tabela 1'!J291,'Tabela 1'!J298)</f>
+        <v>6.2611228439024332E-6</v>
+      </c>
+      <c r="H5" s="28">
+        <f>AVERAGE('Tabela 1'!K212,'Tabela 1'!K214,'Tabela 1'!K217,'Tabela 1'!K221,'Tabela 1'!K222,'Tabela 1'!K227,'Tabela 1'!K229,'Tabela 1'!K235,'Tabela 1'!K251,'Tabela 1'!K256,'Tabela 1'!K258,'Tabela 1'!K262,'Tabela 1'!K265,'Tabela 1'!K266,'Tabela 1'!K275,'Tabela 1'!K279,'Tabela 1'!K283,'Tabela 1'!K287,'Tabela 1'!K289,'Tabela 1'!K290,'Tabela 1'!K291,'Tabela 1'!K298)</f>
+        <v>-3.2376620436182739E-6</v>
+      </c>
+      <c r="I5" s="28">
+        <f>AVERAGE('Tabela 1'!L212,'Tabela 1'!L214,'Tabela 1'!L217,'Tabela 1'!L221,'Tabela 1'!L222,'Tabela 1'!L227,'Tabela 1'!L229,'Tabela 1'!L235,'Tabela 1'!L251,'Tabela 1'!L256,'Tabela 1'!L258,'Tabela 1'!L262,'Tabela 1'!L265,'Tabela 1'!L266,'Tabela 1'!L275,'Tabela 1'!L279,'Tabela 1'!L283,'Tabela 1'!L287,'Tabela 1'!L289,'Tabela 1'!L290,'Tabela 1'!L291,'Tabela 1'!L298)</f>
+        <v>9.2620839846220462E-8</v>
       </c>
       <c r="J5" s="27">
         <f>AVERAGE('Tabela 1'!M203:M302)</f>
@@ -26270,7 +26270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
